--- a/Test Cases/Test Cases - Automation.xlsx
+++ b/Test Cases/Test Cases - Automation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhase\eclipse-workspace\Capstone_Project_SauceDemo_Testing\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390CE334-97A3-46BC-B73F-F1CB92875CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E984CFE-AABC-4753-9C9A-B7F65CCFECF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="212">
   <si>
     <t>Project Name</t>
   </si>
@@ -244,9 +244,6 @@
     <t>Error: "Password is required"</t>
   </si>
   <si>
-    <t>Module 2: Inventory Page</t>
-  </si>
-  <si>
     <t>TC_SD_006</t>
   </si>
   <si>
@@ -265,9 +262,6 @@
     <t>Details displayed</t>
   </si>
   <si>
-    <t>Module 3: Sorting Functionality</t>
-  </si>
-  <si>
     <t>TC_SD_007</t>
   </si>
   <si>
@@ -337,9 +331,6 @@
     <t>Products arranged by highest to lowest price</t>
   </si>
   <si>
-    <t>Module 4: Cart Page</t>
-  </si>
-  <si>
     <t>Usability</t>
   </si>
   <si>
@@ -470,9 +461,6 @@
   </si>
   <si>
     <t>Navigation works</t>
-  </si>
-  <si>
-    <t>Module 5: Checkout Flow</t>
   </si>
   <si>
     <t>TC_SD_017</t>
@@ -650,9 +638,6 @@
     <t>Empty cart</t>
   </si>
   <si>
-    <t>Module 6: Menu Navigation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quantity non editable </t>
   </si>
   <si>
@@ -663,6 +648,18 @@
   </si>
   <si>
     <t>Title of one product "Sauce Labs Backpack" should be there</t>
+  </si>
+  <si>
+    <t>Module 2: Sorting Functionality</t>
+  </si>
+  <si>
+    <t>Module 3: Cart Page</t>
+  </si>
+  <si>
+    <t>Module 4: Checkout Flow</t>
+  </si>
+  <si>
+    <t>Module 5: Menu Navigation</t>
   </si>
 </sst>
 </file>
@@ -1299,10 +1296,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1664,7 +1661,7 @@
         <v>59</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>53</v>
@@ -1722,7 +1719,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
         <v>5</v>
       </c>
@@ -1764,9 +1761,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="20" t="s">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="9" t="s">
         <v>34</v>
@@ -1775,7 +1772,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" s="8" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="28">
         <v>6</v>
       </c>
@@ -1783,28 +1780,28 @@
         <v>36</v>
       </c>
       <c r="C14" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="E14" s="25" t="s">
         <v>76</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>77</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>44</v>
       </c>
       <c r="G14" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="I14" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J14" s="25" t="s">
         <v>79</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>80</v>
       </c>
       <c r="K14" s="25" t="s">
         <v>45</v>
@@ -1821,47 +1818,78 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:19" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
+        <v>7</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="Q15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="R15" s="9" t="s">
+      <c r="E15" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="14"/>
+      <c r="Q15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R15" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D16" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="13" t="s">
+      <c r="G16" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="13" t="s">
+      <c r="I16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>45</v>
@@ -1874,36 +1902,36 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F17" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="13" t="s">
+      <c r="I17" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J17" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="K17" s="13" t="s">
         <v>45</v>
@@ -1916,36 +1944,36 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F18" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="13" t="s">
+      <c r="I18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="K18" s="13" t="s">
         <v>45</v>
@@ -1958,92 +1986,96 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="12">
-        <v>10</v>
-      </c>
-      <c r="B19" s="13" t="s">
+    <row r="19" spans="1:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="28">
+        <v>11</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="27"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="R20" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" s="28">
+        <v>12</v>
+      </c>
+      <c r="B21" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="14"/>
-      <c r="Q19" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="R19" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q20" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="R20" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="28">
-        <v>11</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>106</v>
-      </c>
       <c r="C21" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>110</v>
-      </c>
       <c r="G21" s="25" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="L21" s="27"/>
       <c r="M21" s="26"/>
@@ -2057,39 +2089,39 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>209</v>
+        <v>125</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="L22" s="27"/>
       <c r="M22" s="26"/>
@@ -2103,36 +2135,36 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="28">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K23" s="25" t="s">
         <v>45</v>
@@ -2149,36 +2181,36 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="28">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K24" s="25" t="s">
         <v>45</v>
@@ -2195,36 +2227,36 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K25" s="25" t="s">
         <v>45</v>
@@ -2241,93 +2273,89 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="28">
-        <v>16</v>
-      </c>
-      <c r="B26" s="25" t="s">
+    <row r="26" spans="1:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A27" s="28">
+        <v>17</v>
+      </c>
+      <c r="B27" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="H26" s="25" t="s">
+      <c r="C27" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="I26" s="26" t="s">
+      <c r="D27" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="J26" s="25" t="s">
+      <c r="E27" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="K26" s="25" t="s">
+      <c r="F27" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="K27" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="27"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="R26" s="25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q27" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="R27" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="L27" s="14"/>
+      <c r="Q27" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R27" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="28">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="K28" s="25" t="s">
         <v>45</v>
@@ -2340,36 +2368,36 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="28">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>162</v>
+        <v>3</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="K29" s="25" t="s">
         <v>45</v>
@@ -2382,36 +2410,36 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="28">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>3</v>
+        <v>169</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="K30" s="25" t="s">
         <v>45</v>
@@ -2424,36 +2452,36 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K31" s="25" t="s">
         <v>45</v>
@@ -2466,79 +2494,85 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="28">
-        <v>21</v>
-      </c>
-      <c r="B32" s="25" t="s">
+    <row r="32" spans="1:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+    </row>
+    <row r="33" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+      <c r="A33" s="29">
+        <v>22</v>
+      </c>
+      <c r="B33" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="G32" s="25" t="s">
+      <c r="C33" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="D33" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="I32" s="26" t="s">
+      <c r="E33" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="J32" s="25" t="s">
+      <c r="F33" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="K32" s="25" t="s">
+      <c r="J33" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="K33" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="L32" s="14"/>
-      <c r="Q32" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="R32" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="R33" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="S33" s="17"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="R33" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="S33" s="18"/>
       <c r="T33" s="17"/>
     </row>
     <row r="34" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" s="29">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>36</v>
@@ -2549,14 +2583,14 @@
       <c r="D34" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="23" t="s">
         <v>185</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>44</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H34" s="24" t="s">
         <v>3</v>
@@ -2565,7 +2599,7 @@
         <v>186</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K34" s="24" t="s">
         <v>45</v>
@@ -2586,7 +2620,7 @@
     </row>
     <row r="35" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" s="29">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>36</v>
@@ -2597,23 +2631,23 @@
       <c r="D35" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>44</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H35" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I35" s="24" t="s">
-        <v>190</v>
+      <c r="I35" s="23" t="s">
+        <v>201</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K35" s="24" t="s">
         <v>45</v>
@@ -2634,34 +2668,34 @@
     </row>
     <row r="36" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" s="29">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="D36" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="E36" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="F36" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="F36" s="24" t="s">
-        <v>44</v>
-      </c>
       <c r="G36" s="24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H36" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="23" t="s">
-        <v>205</v>
+      <c r="I36" s="24" t="s">
+        <v>194</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K36" s="24" t="s">
         <v>45</v>
@@ -2680,51 +2714,25 @@
       <c r="S36" s="18"/>
       <c r="T36" s="17"/>
     </row>
-    <row r="37" spans="1:20" ht="15" x14ac:dyDescent="0.35">
-      <c r="A37" s="29">
-        <v>25</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="H37" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="I37" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="J37" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="K37" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="R37" s="25" t="s">
-        <v>35</v>
-      </c>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
       <c r="S37" s="18"/>
       <c r="T37" s="17"/>
     </row>
@@ -2794,28 +2802,6 @@
       <c r="S40" s="18"/>
       <c r="T40" s="17"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="17"/>
-    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B4:J4"/>

--- a/Test Cases/Test Cases - Automation.xlsx
+++ b/Test Cases/Test Cases - Automation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhase\eclipse-workspace\Capstone_Project_SauceDemo_Testing\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E984CFE-AABC-4753-9C9A-B7F65CCFECF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082011F2-19D1-42B1-996E-99CB44F9A8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1298,8 +1298,8 @@
   </sheetPr>
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
